--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projects\DARA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel Station\DARA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F06371-379C-473A-A797-E6771E2A6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA0CD3-37CF-44FF-BEB3-783A70ADF989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75073A44-FF9D-49B1-BFF3-CED9284A83C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{75073A44-FF9D-49B1-BFF3-CED9284A83C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="189">
   <si>
     <t>Module Name:</t>
   </si>
@@ -252,7 +252,387 @@
     <t>System displays a results list based on keyword searched</t>
   </si>
   <si>
-    <t>TC_0.2.</t>
+    <t>TC_0.2.1</t>
+  </si>
+  <si>
+    <t>1. Do TC_0.1.6
+2. Click selected study</t>
+  </si>
+  <si>
+    <t>Verify that the selected or all of the studies redirect to the pdf reader.</t>
+  </si>
+  <si>
+    <t>Page should display a customized pdf reader of the study with:</t>
+  </si>
+  <si>
+    <t>Should be redirected to the specified pdf link.</t>
+  </si>
+  <si>
+    <t>TC_0.2.2</t>
+  </si>
+  <si>
+    <t>Search Again</t>
+  </si>
+  <si>
+    <t>Verify that the same function of TC_0.1.2, TC_0.1.3, TC_0.1.4, TC_0.1.6 still apply</t>
+  </si>
+  <si>
+    <t>1. Enter keyword in search field
+2. Input year range in filter
+3. Click on "Case Study" and "Proposal" button
+4. Click the search button or hit enter.</t>
+  </si>
+  <si>
+    <t>Keyword: "Phone"
+From: 2020
+To: 2024</t>
+  </si>
+  <si>
+    <t>System displays a results list based on what was searched</t>
+  </si>
+  <si>
+    <t>It wont search when pressed enter. It only searches when clicking the search button.</t>
+  </si>
+  <si>
+    <t>TC_0.2.3</t>
+  </si>
+  <si>
+    <t>Click Logo</t>
+  </si>
+  <si>
+    <t>1. Click the DARA Logo</t>
+  </si>
+  <si>
+    <t>To redirect back to the Landing Page</t>
+  </si>
+  <si>
+    <t>The logo link should redirect to the Landing Page</t>
+  </si>
+  <si>
+    <t>Can see the search querries on the landing page.</t>
+  </si>
+  <si>
+    <t>TC_0.2.4</t>
+  </si>
+  <si>
+    <t>Select a Searched Study</t>
+  </si>
+  <si>
+    <t>TC_0.3.1</t>
+  </si>
+  <si>
+    <t>TC_0.3.2</t>
+  </si>
+  <si>
+    <t>Redirect back to the Landing Page while reading the pdf of selected study</t>
+  </si>
+  <si>
+    <t>Ensure login page is accessible via top-right login link while reading the pdf of selected study</t>
+  </si>
+  <si>
+    <t>Search Again (Login Page)</t>
+  </si>
+  <si>
+    <t>TC_0.3.3</t>
+  </si>
+  <si>
+    <t>Login Successfully as specific role.</t>
+  </si>
+  <si>
+    <t>Valid username and password combination successfully logs the user in and redirects to where the user is authorized.</t>
+  </si>
+  <si>
+    <t>1. Input correct USN for specified role (Student, Teacher, Admin)
+2. Input correct password
+3. Log in</t>
+  </si>
+  <si>
+    <t>(Admin)
+USN: 101010
+Pass: Password1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be redirected to the authorized page. </t>
+  </si>
+  <si>
+    <t>Should be successful</t>
+  </si>
+  <si>
+    <t>​​Entering an incorrect password for a valid username.</t>
+  </si>
+  <si>
+    <t>​​Entering an incorrect password for a valid username should not log in</t>
+  </si>
+  <si>
+    <t>1. Input correct USN
+2. Input incorrect password
+3. Login</t>
+  </si>
+  <si>
+    <t>USN: 101010
+Pass: PassworD1</t>
+  </si>
+  <si>
+    <t>Should not be logged in.</t>
+  </si>
+  <si>
+    <t>Throws an error.</t>
+  </si>
+  <si>
+    <t>Entering an incorrect username for a valid password.</t>
+  </si>
+  <si>
+    <t>​​Entering an incorrect username for a valid password should not log in</t>
+  </si>
+  <si>
+    <t>1. Input incorrect USN
+2. Input correct password
+3. Login</t>
+  </si>
+  <si>
+    <t>USN: 101010a
+Pass: Password1</t>
+  </si>
+  <si>
+    <t>Testing login with suspended user accounts</t>
+  </si>
+  <si>
+    <t>Logging iin with suspended user accounts</t>
+  </si>
+  <si>
+    <t>1. Input correct usn
+2. Input correct password
+3. Login</t>
+  </si>
+  <si>
+    <t>USN: 19006
+Pass: Password1</t>
+  </si>
+  <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Test for SQL injection vulnerabilities by attempting to inject SQL code into username and password fields.</t>
+  </si>
+  <si>
+    <t>1. Input the SQL Injection
+2. Login</t>
+  </si>
+  <si>
+    <t>USN: 105 OR 1=1</t>
+  </si>
+  <si>
+    <t>TC_0.3.4</t>
+  </si>
+  <si>
+    <t>TC_0.3.5</t>
+  </si>
+  <si>
+    <t>TC_0.3.6</t>
+  </si>
+  <si>
+    <t>TC_0.3.7</t>
+  </si>
+  <si>
+    <t>TC_0.3.8</t>
+  </si>
+  <si>
+    <t>Click forgot password</t>
+  </si>
+  <si>
+    <t>For users that forgot their passwords or username.</t>
+  </si>
+  <si>
+    <t>1. Click "Forgot Password?"</t>
+  </si>
+  <si>
+    <t>Redirected to the Forgot Password Page</t>
+  </si>
+  <si>
+    <t>Displays the page of account recovery.</t>
+  </si>
+  <si>
+    <t>TC_0.3.10</t>
+  </si>
+  <si>
+    <t>Search Again (Recovery Page)</t>
+  </si>
+  <si>
+    <t>Request Account Recovery using correct Email</t>
+  </si>
+  <si>
+    <t>1. Input a correct email for recovery</t>
+  </si>
+  <si>
+    <t>Email: gambaza66@mail.com</t>
+  </si>
+  <si>
+    <t>User redirects to the OTP stage for recovering account.</t>
+  </si>
+  <si>
+    <t>Displays the OTP page.</t>
+  </si>
+  <si>
+    <t>Request Account Recovery using incorrect Email</t>
+  </si>
+  <si>
+    <t>Ensure that the external user redirects to the OTP verification page after email validatoin,</t>
+  </si>
+  <si>
+    <t>1. Input a incorrect email for recovery</t>
+  </si>
+  <si>
+    <t>Email: gambaza6@mail.com</t>
+  </si>
+  <si>
+    <t>Usershouldnt be redirected to the OTP stage for recovering account.</t>
+  </si>
+  <si>
+    <t>OTP Page should not be displayed.</t>
+  </si>
+  <si>
+    <t>Request Account Recovery using unexistent Email</t>
+  </si>
+  <si>
+    <t>1. Input a unexisted email for recovery</t>
+  </si>
+  <si>
+    <t>Email: email@email.com</t>
+  </si>
+  <si>
+    <t>Email Validation</t>
+  </si>
+  <si>
+    <t>To see if the system accepts the email without "@" or "email.com"</t>
+  </si>
+  <si>
+    <t>1. Input incomplete email</t>
+  </si>
+  <si>
+    <t>Email:
+gambaza66,
+gambaza@</t>
+  </si>
+  <si>
+    <t>It have not requested</t>
+  </si>
+  <si>
+    <t>TC_0.4.1</t>
+  </si>
+  <si>
+    <t>TC_0.4.2</t>
+  </si>
+  <si>
+    <t>TC_0.4.3</t>
+  </si>
+  <si>
+    <t>TC_0.4.4</t>
+  </si>
+  <si>
+    <t>TC_0.4.5</t>
+  </si>
+  <si>
+    <t>TC_0.4.6</t>
+  </si>
+  <si>
+    <t>TC_0.4.7</t>
+  </si>
+  <si>
+    <t>OTP Time Limit</t>
+  </si>
+  <si>
+    <t>To test if the time limit is accurate and dynamically counting base on time zone (In this case it's Manila/Asia"</t>
+  </si>
+  <si>
+    <t>Dynamic counting</t>
+  </si>
+  <si>
+    <t>Not static</t>
+  </si>
+  <si>
+    <t>Time displays after a second after refreshing.</t>
+  </si>
+  <si>
+    <t>Test Time Limit for OTP</t>
+  </si>
+  <si>
+    <t>Shouldn't verify when the limit reaches to 5 mins.</t>
+  </si>
+  <si>
+    <t>1. Wait 5 minutes</t>
+  </si>
+  <si>
+    <t>Cannot verify OTP</t>
+  </si>
+  <si>
+    <t>Displays Expired</t>
+  </si>
+  <si>
+    <t>Input Wrong OTP Within the Time Limit</t>
+  </si>
+  <si>
+    <t>To see what happens when entering wrong OTP within the time limit.</t>
+  </si>
+  <si>
+    <t>1. Input wrong OTP</t>
+  </si>
+  <si>
+    <t>OTP: 000001</t>
+  </si>
+  <si>
+    <t>Throws an error</t>
+  </si>
+  <si>
+    <t>Must be still in the same Page session.</t>
+  </si>
+  <si>
+    <t>Input Right OTP Outside the Time Limit</t>
+  </si>
+  <si>
+    <t>To see what happens when entering right OTP outside the time limit.</t>
+  </si>
+  <si>
+    <t>1. Wait 5 minutes
+2. Input Right OTP</t>
+  </si>
+  <si>
+    <t>OTP: 622773</t>
+  </si>
+  <si>
+    <t>When expired a link appears for requesting an OTP again</t>
+  </si>
+  <si>
+    <t>Input Right OTP Within the Time Limit.</t>
+  </si>
+  <si>
+    <t>To see what happens when entering right OTP within the time limit.</t>
+  </si>
+  <si>
+    <t>1. Enter correct OTP</t>
+  </si>
+  <si>
+    <t>OTP: 442620</t>
+  </si>
+  <si>
+    <t>Successfully redirect to the user's authenticated page</t>
+  </si>
+  <si>
+    <t>Must be redirected to user's edit account page.</t>
+  </si>
+  <si>
+    <t>TC_0.5.1</t>
+  </si>
+  <si>
+    <t>TC_0.5.2</t>
+  </si>
+  <si>
+    <t>TC_0.5.3</t>
+  </si>
+  <si>
+    <t>TC_0.5.4</t>
+  </si>
+  <si>
+    <t>TC_0.5.5</t>
   </si>
 </sst>
 </file>
@@ -260,9 +640,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +668,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -454,32 +840,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,6 +870,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,15 +920,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>226050</xdr:rowOff>
+      <xdr:rowOff>145912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1656</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149826</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -569,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="226050"/>
-          <a:ext cx="1830456" cy="685776"/>
+          <a:off x="1" y="145912"/>
+          <a:ext cx="1914292" cy="634555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,25 +1280,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490B07AD-F558-4F3A-98D0-365640E12396}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="18.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="27"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -928,8 +1317,8 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -939,7 +1328,7 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>45764</v>
       </c>
       <c r="F2" s="9"/>
@@ -948,8 +1337,8 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -968,14 +1357,14 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>45768</v>
       </c>
       <c r="F4" s="9"/>
@@ -984,40 +1373,40 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1045,26 +1434,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1077,26 +1466,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1109,26 +1498,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -1141,26 +1530,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1173,26 +1562,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="20" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1205,26 +1594,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -1237,16 +1626,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="H16" s="12" t="s">
         <v>35</v>
       </c>
@@ -1257,16 +1658,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="H17" s="12" t="s">
         <v>35</v>
       </c>
@@ -1274,19 +1687,31 @@
         <v>23</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="H18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1297,16 +1722,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1317,16 +1754,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1337,16 +1786,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="12" t="s">
         <v>35</v>
       </c>
@@ -1357,16 +1818,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="H22" s="12" t="s">
         <v>35</v>
       </c>
@@ -1377,16 +1850,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+        <v>119</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="H23" s="12" t="s">
         <v>35</v>
       </c>
@@ -1397,16 +1882,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H24" s="12" t="s">
         <v>35</v>
       </c>
@@ -1417,16 +1914,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H25" s="12" t="s">
         <v>35</v>
       </c>
@@ -1437,16 +1946,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+        <v>122</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H26" s="12" t="s">
         <v>35</v>
       </c>
@@ -1457,16 +1978,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="H27" s="12" t="s">
         <v>35</v>
       </c>
@@ -1477,16 +2010,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="H28" s="12" t="s">
         <v>35</v>
       </c>
@@ -1497,16 +2042,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+        <v>150</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="H29" s="12" t="s">
         <v>35</v>
       </c>
@@ -1517,16 +2074,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+        <v>151</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="H30" s="12" t="s">
         <v>35</v>
       </c>
@@ -1537,16 +2106,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+        <v>152</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
@@ -1557,16 +2138,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+        <v>153</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="H32" s="12" t="s">
         <v>35</v>
       </c>
@@ -1577,16 +2170,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+        <v>154</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="H33" s="12" t="s">
         <v>35</v>
       </c>
@@ -1594,19 +2199,31 @@
         <v>23</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="H34" s="12" t="s">
         <v>35</v>
       </c>
@@ -1614,19 +2231,31 @@
         <v>23</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+        <v>156</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="H35" s="12" t="s">
         <v>35</v>
       </c>
@@ -1634,19 +2263,31 @@
         <v>23</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+        <v>184</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="H36" s="12" t="s">
         <v>35</v>
       </c>
@@ -1654,19 +2295,31 @@
         <v>23</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+        <v>185</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="H37" s="12" t="s">
         <v>35</v>
       </c>
@@ -1677,16 +2330,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+        <v>186</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="H38" s="12" t="s">
         <v>35</v>
       </c>
@@ -1697,18 +2362,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+        <v>187</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="H39" s="12" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>23</v>
@@ -1717,16 +2394,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+        <v>188</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="H40" s="12" t="s">
         <v>35</v>
       </c>
@@ -1737,16 +2426,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="12" t="s">
         <v>35</v>
       </c>
@@ -1757,16 +2446,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="12" t="s">
         <v>35</v>
       </c>
@@ -1777,16 +2466,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="12" t="s">
         <v>35</v>
       </c>
@@ -1797,16 +2486,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="12" t="s">
         <v>35</v>
       </c>
@@ -1817,16 +2506,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="12" t="s">
         <v>35</v>
       </c>
@@ -1837,16 +2526,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="12" t="s">
         <v>35</v>
       </c>
@@ -1857,16 +2546,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="12" t="s">
         <v>35</v>
       </c>
@@ -1877,16 +2566,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="12" t="s">
         <v>35</v>
       </c>
@@ -1897,16 +2586,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="12" t="s">
         <v>35</v>
       </c>
@@ -1917,16 +2606,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="12" t="s">
         <v>35</v>
       </c>
@@ -1937,16 +2626,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="12" t="s">
         <v>35</v>
       </c>
@@ -1957,16 +2646,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="12" t="s">
         <v>35</v>
       </c>
@@ -1977,16 +2666,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="12" t="s">
         <v>35</v>
       </c>
@@ -1997,16 +2686,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="12" t="s">
         <v>35</v>
       </c>
@@ -2017,16 +2706,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="12" t="s">
         <v>35</v>
       </c>
@@ -2037,16 +2726,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="12" t="s">
         <v>35</v>
       </c>
@@ -2057,16 +2746,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="12" t="s">
         <v>35</v>
       </c>
@@ -2077,16 +2766,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="12" t="s">
         <v>35</v>
       </c>
@@ -2097,16 +2786,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="12" t="s">
         <v>35</v>
       </c>
@@ -2117,16 +2806,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="12" t="s">
         <v>35</v>
       </c>
@@ -2137,16 +2826,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="12" t="s">
         <v>35</v>
       </c>
@@ -2157,16 +2846,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="12" t="s">
         <v>35</v>
       </c>
@@ -2177,16 +2866,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="12" t="s">
         <v>35</v>
       </c>
@@ -2197,16 +2886,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="12"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="12" t="s">
         <v>35</v>
       </c>
@@ -2217,16 +2906,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="12"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="12" t="s">
         <v>35</v>
       </c>
@@ -2237,16 +2926,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="12" t="s">
         <v>35</v>
       </c>
@@ -2257,16 +2946,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="12" t="s">
         <v>35</v>
       </c>
@@ -2277,16 +2966,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="12" t="s">
         <v>35</v>
       </c>
@@ -2297,16 +2986,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="12" t="s">
         <v>35</v>
       </c>
@@ -2317,16 +3006,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="12"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="12" t="s">
         <v>35</v>
       </c>
@@ -2337,16 +3026,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="12" t="s">
         <v>35</v>
       </c>
@@ -2357,16 +3046,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="12" t="s">
         <v>35</v>
       </c>
@@ -2377,16 +3066,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="12" t="s">
         <v>35</v>
       </c>
@@ -2397,16 +3086,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="12" t="s">
         <v>35</v>
       </c>
@@ -2417,16 +3106,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="12" t="s">
         <v>35</v>
       </c>
@@ -2437,16 +3126,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="12" t="s">
         <v>35</v>
       </c>
@@ -2457,16 +3146,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="12" t="s">
         <v>35</v>
       </c>
@@ -2477,16 +3166,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="12" t="s">
         <v>35</v>
       </c>
@@ -2497,16 +3186,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="12" t="s">
         <v>35</v>
       </c>
@@ -2517,16 +3206,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="12" t="s">
         <v>35</v>
       </c>
@@ -2537,16 +3226,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="12" t="s">
         <v>35</v>
       </c>
@@ -2557,16 +3246,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="12" t="s">
         <v>35</v>
       </c>
@@ -2577,16 +3266,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="12" t="s">
         <v>35</v>
       </c>
@@ -2597,16 +3286,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="12" t="s">
         <v>35</v>
       </c>
@@ -2617,16 +3306,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="12" t="s">
         <v>35</v>
       </c>
@@ -2637,16 +3326,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B86" s="12"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="12" t="s">
         <v>35</v>
       </c>
@@ -2657,16 +3346,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="12"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="12" t="s">
         <v>35</v>
       </c>
@@ -2677,16 +3366,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="12" t="s">
         <v>35</v>
       </c>
@@ -2697,16 +3386,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="12" t="s">
         <v>35</v>
       </c>
@@ -2717,16 +3406,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="12" t="s">
         <v>35</v>
       </c>
@@ -2737,16 +3426,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="12" t="s">
         <v>35</v>
       </c>
@@ -2757,16 +3446,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="12" t="s">
         <v>35</v>
       </c>
@@ -2777,16 +3466,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="12" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +3486,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="12"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="12" t="s">
         <v>35</v>
       </c>
@@ -2817,16 +3506,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="12"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="12" t="s">
         <v>35</v>
       </c>
@@ -2837,16 +3526,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
       <c r="E96" s="12"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="12" t="s">
         <v>35</v>
       </c>
@@ -2857,16 +3546,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="12" t="s">
         <v>35</v>
       </c>
@@ -2877,16 +3566,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="12" t="s">
         <v>35</v>
       </c>
@@ -2897,16 +3586,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="12" t="s">
         <v>35</v>
       </c>
@@ -2917,16 +3606,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="12" t="s">
         <v>35</v>
       </c>
@@ -2937,16 +3626,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="12" t="s">
         <v>35</v>
       </c>
@@ -2957,16 +3646,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="12"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="12" t="s">
         <v>35</v>
       </c>
@@ -2977,16 +3666,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="12" t="s">
         <v>35</v>
       </c>
@@ -2997,16 +3686,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="12" t="s">
         <v>35</v>
       </c>
@@ -3017,16 +3706,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="12"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="12" t="s">
         <v>35</v>
       </c>
@@ -3037,16 +3726,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="12" t="s">
         <v>35</v>
       </c>
@@ -3057,16 +3746,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
       <c r="H107" s="12" t="s">
         <v>35</v>
       </c>
@@ -3077,16 +3766,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
       <c r="H108" s="12" t="s">
         <v>35</v>
       </c>
@@ -3097,16 +3786,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="12" t="s">
         <v>35</v>
       </c>
@@ -3117,16 +3806,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="12" t="s">
         <v>35</v>
       </c>
@@ -3137,16 +3826,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B111" s="12"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="12" t="s">
         <v>35</v>
       </c>
@@ -3157,16 +3846,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B112" s="12"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="12" t="s">
         <v>35</v>
       </c>
@@ -3184,6 +3873,7 @@
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
